--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.16759830520461</v>
+        <v>98.99665622291701</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.952356512192</v>
+        <v>135.4515924683736</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.74497371527072</v>
+        <v>122.5242825907322</v>
       </c>
       <c r="AD2" t="n">
-        <v>78167.59830520461</v>
+        <v>98996.65622291701</v>
       </c>
       <c r="AE2" t="n">
-        <v>106952.356512192</v>
+        <v>135451.5924683736</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964018347193361e-06</v>
+        <v>6.701369695461787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.112847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>96744.97371527072</v>
+        <v>122524.2825907322</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.76090948180997</v>
+        <v>84.67521874554296</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.24048928577936</v>
+        <v>115.8563698946101</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.91437943116118</v>
+        <v>104.7992005573349</v>
       </c>
       <c r="AD3" t="n">
-        <v>63760.90948180998</v>
+        <v>84675.21874554297</v>
       </c>
       <c r="AE3" t="n">
-        <v>87240.48928577936</v>
+        <v>115856.3698946101</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.486844793864291e-06</v>
+        <v>7.585233744221104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.513888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>78914.37943116119</v>
+        <v>104799.2005573349</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.30227553449843</v>
+        <v>82.56875207679005</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.24472196868058</v>
+        <v>112.9742092676731</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.10908534572866</v>
+        <v>102.192109295494</v>
       </c>
       <c r="AD2" t="n">
-        <v>62302.27553449843</v>
+        <v>82568.75207679004</v>
       </c>
       <c r="AE2" t="n">
-        <v>85244.72196868058</v>
+        <v>112974.2092676731</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.562860692362493e-06</v>
+        <v>7.901921115431452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.592013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>77109.08534572866</v>
+        <v>102192.109295494</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.21366244331238</v>
+        <v>81.3095467850118</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.75523351110051</v>
+        <v>111.2513090352462</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.76175157602937</v>
+        <v>100.6336402431437</v>
       </c>
       <c r="AD3" t="n">
-        <v>61213.66244331238</v>
+        <v>81309.5467850118</v>
       </c>
       <c r="AE3" t="n">
-        <v>83755.23351110051</v>
+        <v>111251.3090352462</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.728167384042021e-06</v>
+        <v>8.188197757558838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.435763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>75761.75157602938</v>
+        <v>100633.6402431437</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.34758588914274</v>
+        <v>72.49306576855264</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.36076465977105</v>
+        <v>99.18821075284151</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.26387764664797</v>
+        <v>89.72182713014314</v>
       </c>
       <c r="AD2" t="n">
-        <v>54347.58588914274</v>
+        <v>72493.06576855264</v>
       </c>
       <c r="AE2" t="n">
-        <v>74360.76465977106</v>
+        <v>99188.21075284151</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.3401264680075e-06</v>
+        <v>1.010466841778718e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.383680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>67263.87764664798</v>
+        <v>89721.82713014314</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.77152565349113</v>
+        <v>75.6795358654152</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.67730598202604</v>
+        <v>103.5480797165059</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.26389291990299</v>
+        <v>93.66559631903135</v>
       </c>
       <c r="AD2" t="n">
-        <v>56771.52565349113</v>
+        <v>75679.53586541521</v>
       </c>
       <c r="AE2" t="n">
-        <v>77677.30598202604</v>
+        <v>103548.0797165059</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180027083360262e-06</v>
+        <v>9.436884374639793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70263.89291990298</v>
+        <v>93665.59631903135</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.58275270601462</v>
+        <v>70.27339349472064</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.94604203967133</v>
+        <v>96.15115722275654</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.07961276432532</v>
+        <v>86.97462572643713</v>
       </c>
       <c r="AD2" t="n">
-        <v>52582.75270601462</v>
+        <v>70273.39349472064</v>
       </c>
       <c r="AE2" t="n">
-        <v>71946.04203967133</v>
+        <v>96151.15722275653</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.340659515834825e-06</v>
+        <v>1.046597188804259e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>65079.61276432531</v>
+        <v>86974.62572643712</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.30027951642931</v>
+        <v>93.74205813190552</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.61023504558598</v>
+        <v>128.2620195437482</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.34427577108428</v>
+        <v>116.0208724154019</v>
       </c>
       <c r="AD2" t="n">
-        <v>63300.27951642931</v>
+        <v>93742.05813190552</v>
       </c>
       <c r="AE2" t="n">
-        <v>86610.23504558599</v>
+        <v>128262.0195437482</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.445130749892899e-06</v>
+        <v>7.647763919134574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>78344.27577108429</v>
+        <v>116020.8724154019</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.92788996986896</v>
+        <v>82.19405160388027</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.73247112242937</v>
+        <v>112.4615275500201</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.64572300129491</v>
+        <v>101.7283572014203</v>
       </c>
       <c r="AD3" t="n">
-        <v>61927.88996986896</v>
+        <v>82194.05160388027</v>
       </c>
       <c r="AE3" t="n">
-        <v>84732.47112242937</v>
+        <v>112461.5275500201</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.664134063988151e-06</v>
+        <v>8.024555005369533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>76645.72300129491</v>
+        <v>101728.3572014203</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.70178337304744</v>
+        <v>77.4688689672393</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.74066093268227</v>
+        <v>105.9963242062256</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.98927153842391</v>
+        <v>95.88018379078564</v>
       </c>
       <c r="AD2" t="n">
-        <v>51701.78337304744</v>
+        <v>77468.86896723931</v>
       </c>
       <c r="AE2" t="n">
-        <v>70740.66093268228</v>
+        <v>105996.3242062256</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.24316087787795e-06</v>
+        <v>1.051075686005334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63989.27153842391</v>
+        <v>95880.18379078564</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.89524302793613</v>
+        <v>78.43849517054518</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.58306978553836</v>
+        <v>107.3230095544771</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.89233470427412</v>
+        <v>97.08025215141501</v>
       </c>
       <c r="AD2" t="n">
-        <v>58895.24302793613</v>
+        <v>78438.49517054518</v>
       </c>
       <c r="AE2" t="n">
-        <v>80583.06978553836</v>
+        <v>107323.0095544771</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.999824890084476e-06</v>
+        <v>8.85506140182709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72892.33470427412</v>
+        <v>97080.25215141501</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.93987878754162</v>
+        <v>78.48313093015066</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.6441424010213</v>
+        <v>107.38408216996</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.94757863505134</v>
+        <v>97.13549608219223</v>
       </c>
       <c r="AD3" t="n">
-        <v>58939.87878754162</v>
+        <v>78483.13093015067</v>
       </c>
       <c r="AE3" t="n">
-        <v>80644.14240102129</v>
+        <v>107384.08216996</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.999003904860873e-06</v>
+        <v>8.853607375991222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72947.57863505134</v>
+        <v>97135.49608219223</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.83586806737881</v>
+        <v>81.92559230960143</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.60656269572259</v>
+        <v>112.0942096999998</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.53183109811941</v>
+        <v>101.396095651472</v>
       </c>
       <c r="AD2" t="n">
-        <v>61835.86806737881</v>
+        <v>81925.59230960143</v>
       </c>
       <c r="AE2" t="n">
-        <v>84606.56269572259</v>
+        <v>112094.2096999997</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.59486584512384e-06</v>
+        <v>8.013044813866249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>76531.83109811941</v>
+        <v>101396.095651472</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.37168894462492</v>
+        <v>80.29082098625535</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.60320822494771</v>
+        <v>109.857443454378</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.71967396630899</v>
+        <v>99.37280323701052</v>
       </c>
       <c r="AD3" t="n">
-        <v>60371.68894462492</v>
+        <v>80290.82098625535</v>
       </c>
       <c r="AE3" t="n">
-        <v>82603.20822494771</v>
+        <v>109857.443454378</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.846083013201708e-06</v>
+        <v>8.451145618910814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>74719.67396630898</v>
+        <v>99372.80323701052</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.1618313869832</v>
+        <v>97.08876650395921</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.52553655763461</v>
+        <v>132.8411335847428</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.88590640198443</v>
+        <v>120.1629622391523</v>
       </c>
       <c r="AD2" t="n">
-        <v>66161.83138698319</v>
+        <v>97088.76650395921</v>
       </c>
       <c r="AE2" t="n">
-        <v>90525.53655763461</v>
+        <v>132841.1335847428</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.111512166436841e-06</v>
+        <v>6.989298186804993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>81885.90640198442</v>
+        <v>120162.9622391523</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.20742378960016</v>
+        <v>83.96761529187022</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.48318574363286</v>
+        <v>114.8881956320344</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.22935187619473</v>
+        <v>103.923427487538</v>
       </c>
       <c r="AD3" t="n">
-        <v>63207.42378960016</v>
+        <v>83967.61529187021</v>
       </c>
       <c r="AE3" t="n">
-        <v>86483.18574363286</v>
+        <v>114888.1956320344</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.526806681711758e-06</v>
+        <v>7.69527133855576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.513888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>78229.35187619472</v>
+        <v>103923.427487538</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.6005117776826</v>
+        <v>76.73155315396974</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.81156136943092</v>
+        <v>104.9874961824327</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.28989656507171</v>
+        <v>94.96763689768422</v>
       </c>
       <c r="AD2" t="n">
-        <v>57600.5117776826</v>
+        <v>76731.55315396974</v>
       </c>
       <c r="AE2" t="n">
-        <v>78811.56136943091</v>
+        <v>104987.4961824327</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.099822861928906e-06</v>
+        <v>9.196187441846458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.331597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>71289.89656507171</v>
+        <v>94967.63689768422</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.21646861230996</v>
+        <v>73.63465826524163</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.54960833400823</v>
+        <v>100.7501879703171</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.3392597491689</v>
+        <v>91.13473143423212</v>
       </c>
       <c r="AD2" t="n">
-        <v>55216.46861230996</v>
+        <v>73634.65826524163</v>
       </c>
       <c r="AE2" t="n">
-        <v>75549.60833400823</v>
+        <v>100750.1879703171</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.279712148185133e-06</v>
+        <v>9.850255246867141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.357638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>68339.25974916891</v>
+        <v>91134.73143423212</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.53184572442824</v>
+        <v>71.38023967139281</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.24463297849306</v>
+        <v>97.6655929922857</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.25426800653015</v>
+        <v>88.34452587164684</v>
       </c>
       <c r="AD2" t="n">
-        <v>53531.84572442824</v>
+        <v>71380.23967139282</v>
       </c>
       <c r="AE2" t="n">
-        <v>73244.63297849306</v>
+        <v>97665.59299228569</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337919053583533e-06</v>
+        <v>1.026501628933755e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>66254.26800653015</v>
+        <v>88344.52587164684</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.30975402488135</v>
+        <v>76.11397703363744</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.1502220184931</v>
+        <v>104.1425012890589</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.40535872411898</v>
+        <v>94.20328713097598</v>
       </c>
       <c r="AD2" t="n">
-        <v>59309.75402488135</v>
+        <v>76113.97703363743</v>
       </c>
       <c r="AE2" t="n">
-        <v>81150.22201849309</v>
+        <v>104142.5012890589</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.003731525418521e-06</v>
+        <v>1.03206932486096e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73405.35872411898</v>
+        <v>94203.28713097598</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.8977469415769</v>
+        <v>79.63294753593082</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.95473986753225</v>
+        <v>108.9573119763162</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.133094518794</v>
+        <v>98.55857904387217</v>
       </c>
       <c r="AD2" t="n">
-        <v>59897.7469415769</v>
+        <v>79632.94753593083</v>
       </c>
       <c r="AE2" t="n">
-        <v>81954.73986753225</v>
+        <v>108957.3119763162</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.865976495853119e-06</v>
+        <v>8.549328751264425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>74133.09451879399</v>
+        <v>98558.57904387217</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.66561093210327</v>
+        <v>79.4008115264572</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.63712113825262</v>
+        <v>108.6396932470366</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.84578887525602</v>
+        <v>98.27127340033421</v>
       </c>
       <c r="AD3" t="n">
-        <v>59665.61093210327</v>
+        <v>79400.8115264572</v>
       </c>
       <c r="AE3" t="n">
-        <v>81637.12113825262</v>
+        <v>108639.6932470366</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.918636873918535e-06</v>
+        <v>8.641850958190579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73845.78887525602</v>
+        <v>98271.2734003342</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.53052085973856</v>
+        <v>95.21890032241321</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.29350552591845</v>
+        <v>130.2827001824789</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.86689727925931</v>
+        <v>117.8487021300159</v>
       </c>
       <c r="AD2" t="n">
-        <v>64530.52085973856</v>
+        <v>95218.9003224132</v>
       </c>
       <c r="AE2" t="n">
-        <v>88293.50552591844</v>
+        <v>130282.7001824789</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.303426813940142e-06</v>
+        <v>7.358380267644543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>79866.89727925931</v>
+        <v>117848.7021300159</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.45648245197763</v>
+        <v>82.8870446507879</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.45571467630458</v>
+        <v>113.4097112094941</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.29994120546722</v>
+        <v>102.5860475432186</v>
       </c>
       <c r="AD3" t="n">
-        <v>62456.48245197763</v>
+        <v>82887.0446507879</v>
       </c>
       <c r="AE3" t="n">
-        <v>85455.71467630457</v>
+        <v>113409.7112094941</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.621017373641883e-06</v>
+        <v>7.901424731681752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>77299.94120546721</v>
+        <v>102586.0475432186</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.31074084788556</v>
+        <v>90.69177300573089</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.78332811637732</v>
+        <v>124.0884848650359</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.16891925757307</v>
+        <v>112.2456540288318</v>
       </c>
       <c r="AD2" t="n">
-        <v>58310.74084788557</v>
+        <v>90691.77300573089</v>
       </c>
       <c r="AE2" t="n">
-        <v>79783.32811637732</v>
+        <v>124088.4848650359</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.448547006643376e-06</v>
+        <v>9.535285193555189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.946180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>72168.91925757307</v>
+        <v>112245.6540288318</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.00194441755494</v>
+        <v>74.6731810216929</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.62433098349074</v>
+        <v>102.1711406220834</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.31141237736784</v>
+        <v>92.42007035923395</v>
       </c>
       <c r="AD2" t="n">
-        <v>56001.94441755494</v>
+        <v>74673.1810216929</v>
       </c>
       <c r="AE2" t="n">
-        <v>76624.33098349074</v>
+        <v>102171.1406220834</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.239857694837676e-06</v>
+        <v>9.654084296284123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.331597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>69311.41237736784</v>
+        <v>92420.07035923394</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.30414153220213</v>
+        <v>77.64641866798603</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.77429864151797</v>
+        <v>106.2392555397271</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.16075154312135</v>
+        <v>96.09993009877411</v>
       </c>
       <c r="AD2" t="n">
-        <v>58304.14153220213</v>
+        <v>77646.41866798603</v>
       </c>
       <c r="AE2" t="n">
-        <v>79774.29864151798</v>
+        <v>106239.2555397271</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.026923866004992e-06</v>
+        <v>8.980232630357598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>72160.75154312135</v>
+        <v>96099.93009877412</v>
       </c>
     </row>
   </sheetData>
